--- a/biology/Zoologie/Dekatriata/Dekatriata.xlsx
+++ b/biology/Zoologie/Dekatriata/Dekatriata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dekatriata sont un clade de Chélicérates Planaterga comprenant les groupes Arachnida, Chasmataspidida (en) et Eurypterida[1] ainsi que deux genres basaux Winneshiekia (en) et Houia (en)[2]. Les membres du clade des Dekatriata se caractérisent par un opisthosome composé de treize segments (nombre réduit au cours de l'évolution dans la plupart des ordres d'Arachnides[1]) et par des appendices fusionnés en forme de plaque sur le premier segment opisthosomal (somite VII)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dekatriata sont un clade de Chélicérates Planaterga comprenant les groupes Arachnida, Chasmataspidida (en) et Eurypterida ainsi que deux genres basaux Winneshiekia (en) et Houia (en). Les membres du clade des Dekatriata se caractérisent par un opisthosome composé de treize segments (nombre réduit au cours de l'évolution dans la plupart des ordres d'Arachnides) et par des appendices fusionnés en forme de plaque sur le premier segment opisthosomal (somite VII).
 </t>
         </is>
       </c>
